--- a/Dokumente/Projektplan_v2.xlsx
+++ b/Dokumente/Projektplan_v2.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uid14650\source\repos\C1TT\CGateMetrics2\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3AA38C-83C8-40D6-9181-24033C6A6A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED85AD26-75CA-441D-87AF-D980AC8DDAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B11CBA7-135F-43AC-B366-AF702E1CF2FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektzeitplan" sheetId="2" r:id="rId1"/>
+    <sheet name="GUI" sheetId="3" r:id="rId2"/>
+    <sheet name="GUI_Fahrer" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
   <si>
     <t>User Storys nach Scrum erstellen</t>
   </si>
@@ -107,9 +109,6 @@
     <t>Team</t>
   </si>
   <si>
-    <t>Aufteilung wird noch definiert</t>
-  </si>
-  <si>
     <t>Projektzeitplan erstellen / Konzept erstellen</t>
   </si>
   <si>
@@ -147,16 +146,136 @@
   </si>
   <si>
     <t>Georg</t>
+  </si>
+  <si>
+    <t>CRUD</t>
+  </si>
+  <si>
+    <t>Fahrer</t>
+  </si>
+  <si>
+    <t>Buchungen</t>
+  </si>
+  <si>
+    <t>Fahrzeuge</t>
+  </si>
+  <si>
+    <t>Seite 1</t>
+  </si>
+  <si>
+    <t>Seite 2</t>
+  </si>
+  <si>
+    <t>Seite 3</t>
+  </si>
+  <si>
+    <t>Seite 4</t>
+  </si>
+  <si>
+    <t>Diagramm 2 - Alle ausfahrenden LKWs im Zeitraum</t>
+  </si>
+  <si>
+    <t>Diagramm 1 - Alle einfahrenden LKWs im Zeitraum</t>
+  </si>
+  <si>
+    <t>AusweisId</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>Geburtsort</t>
+  </si>
+  <si>
+    <t>Geburtstag</t>
+  </si>
+  <si>
+    <t>Anrede</t>
+  </si>
+  <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>Firma</t>
+  </si>
+  <si>
+    <t>Datensatz 1</t>
+  </si>
+  <si>
+    <t>Datensatz 2</t>
+  </si>
+  <si>
+    <t>Datensatz 3</t>
+  </si>
+  <si>
+    <t>Datensatz 4</t>
+  </si>
+  <si>
+    <t>Datensatz 5</t>
+  </si>
+  <si>
+    <t>Datensatz 6</t>
+  </si>
+  <si>
+    <t>Datensatz 7</t>
+  </si>
+  <si>
+    <t>Datensatz 8</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Create New</t>
+  </si>
+  <si>
+    <t>Seite 1 - CRUD Fahrer</t>
+  </si>
+  <si>
+    <t>Update - neuer Dialog mit Razor Componente</t>
+  </si>
+  <si>
+    <t>Create - neuer Dialog mit Razor Componente</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Seite 2 - CRUD Fahrzeuge</t>
+  </si>
+  <si>
+    <t>Seite 3 - CRUD Buchungen</t>
+  </si>
+  <si>
+    <t>Seite 4 -Diagramm</t>
+  </si>
+  <si>
+    <t>Georg/Stephan</t>
+  </si>
+  <si>
+    <t>Diagramm 3 - Gesamtsverlauf Gewicht im Zeitraum (1 Tag)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -337,16 +456,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -389,6 +522,19 @@
     <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -713,17 +859,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:E35"/>
+  <dimension ref="B2:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="63.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="12"/>
+    <col min="5" max="5" width="14.85546875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -736,21 +882,21 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="32">
+      <c r="C3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="31">
         <v>45117</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -758,46 +904,46 @@
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <v>45117</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="32">
         <v>45117</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:5" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="13"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="32">
+      <c r="C7" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="31">
         <v>45117</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -808,38 +954,38 @@
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <v>45117</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <v>45117</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="32">
         <v>45117</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -847,40 +993,40 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>45117</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="32">
         <v>45118</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="31">
         <v>45119</v>
       </c>
     </row>
@@ -889,250 +1035,986 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="33">
+        <v>45119</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="D16" s="34">
-        <v>45119</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="34">
-        <v>45119</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>32</v>
+      <c r="C17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="33">
+        <v>45119</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="34">
-        <v>45119</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>32</v>
+      <c r="C18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="33">
+        <v>45119</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="34">
-        <v>45119</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>33</v>
+      <c r="C19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="33">
+        <v>45119</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="34">
-        <v>45119</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>33</v>
+      <c r="C20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="33">
+        <v>45119</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="34">
-        <v>45119</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>34</v>
+      <c r="C21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="33">
+        <v>45119</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="34">
-        <v>45119</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>34</v>
+      <c r="C22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="33">
+        <v>45119</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="34">
-        <v>45119</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>36</v>
+      <c r="D23" s="33">
+        <v>45119</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="34">
-        <v>45119</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>33</v>
+      <c r="C24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="33">
+        <v>45119</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="34">
-        <v>45119</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>33</v>
+      <c r="C25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="33">
+        <v>45119</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="34">
-        <v>45119</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>32</v>
+      <c r="C26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="33">
+        <v>45119</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="34">
-        <v>45119</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>34</v>
+      <c r="C27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="33">
+        <v>45119</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="33">
+        <v>45119</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="34">
-        <v>45119</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="14" t="s">
+      <c r="D29" s="32">
+        <v>45119</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="D29" s="33">
-        <v>45119</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="19">
         <v>45121</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="B32" s="28"/>
+      <c r="C32" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="38"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="28"/>
+      <c r="C33" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="33">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="28"/>
+      <c r="C34" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="33">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="28"/>
+      <c r="C35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="38">
+        <v>45119</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="28"/>
+      <c r="C36" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="38">
+        <v>45119</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="28"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="38"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="28"/>
+      <c r="C38" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="38">
+        <v>45119</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="28"/>
+      <c r="C39" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="38">
+        <v>45119</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="28"/>
+      <c r="C40" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="38">
+        <v>45119</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="28"/>
+      <c r="C41" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="38">
+        <v>45119</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="28"/>
+      <c r="C42" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="38">
+        <v>45119</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="28"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="38"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="28"/>
+      <c r="C44" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="38">
+        <v>45119</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="28"/>
+      <c r="C45" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="38">
+        <v>45119</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="28"/>
+      <c r="C46" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="38">
+        <v>45119</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="28"/>
+      <c r="C47" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="38">
+        <v>45119</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="28"/>
+      <c r="C48" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="38">
+        <v>45119</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="28"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="38"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="28"/>
+      <c r="C50" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="38"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="28"/>
+      <c r="C51" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="38">
+        <v>45119</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="28"/>
+      <c r="C52" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="38">
+        <v>45119</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="28"/>
+      <c r="C53" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="38">
+        <v>45119</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="28"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="38"/>
+    </row>
+    <row r="55" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="6">
         <v>45121</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="E55" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="25">
         <v>45121</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="26">
-        <v>45121</v>
-      </c>
-      <c r="E35" s="12" t="s">
+      <c r="E57" s="11" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFEA8AD-3C7C-496C-9E97-A2B7D17C63EE}">
+  <dimension ref="B6:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6584DAB-EB12-44AA-A240-44D553F98276}">
+  <dimension ref="B1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
